--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H2">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I2">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J2">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N2">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O2">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P2">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q2">
-        <v>0.9579688060115148</v>
+        <v>2.826325238561778</v>
       </c>
       <c r="R2">
-        <v>0.9579688060115148</v>
+        <v>25.436927147056</v>
       </c>
       <c r="S2">
-        <v>0.0005044447437831403</v>
+        <v>0.0007602309442329084</v>
       </c>
       <c r="T2">
-        <v>0.0005044447437831403</v>
+        <v>0.0009477495663702117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H3">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I3">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J3">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N3">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P3">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q3">
-        <v>0.6546858061804977</v>
+        <v>0.9744834087537778</v>
       </c>
       <c r="R3">
-        <v>0.6546858061804977</v>
+        <v>8.770350678783998</v>
       </c>
       <c r="S3">
-        <v>0.0003447427637358895</v>
+        <v>0.0002621186096590825</v>
       </c>
       <c r="T3">
-        <v>0.0003447427637358895</v>
+        <v>0.0003267728057197446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H4">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I4">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J4">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N4">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O4">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P4">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q4">
-        <v>1.654786301016563</v>
+        <v>4.829416420423556</v>
       </c>
       <c r="R4">
-        <v>1.654786301016563</v>
+        <v>43.464747783812</v>
       </c>
       <c r="S4">
-        <v>0.0008713731035852925</v>
+        <v>0.001299026649622533</v>
       </c>
       <c r="T4">
-        <v>0.0008713731035852925</v>
+        <v>0.00161944466115539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H5">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I5">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J5">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N5">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O5">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P5">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q5">
-        <v>3.370434663354015</v>
+        <v>5.920702876699555</v>
       </c>
       <c r="R5">
-        <v>3.370434663354015</v>
+        <v>53.28632589029599</v>
       </c>
       <c r="S5">
-        <v>0.001774794794490411</v>
+        <v>0.001592563190203213</v>
       </c>
       <c r="T5">
-        <v>0.001774794794490411</v>
+        <v>0.001985384947011368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H6">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I6">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J6">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N6">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O6">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P6">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q6">
-        <v>11.14241290039654</v>
+        <v>20.001512633758</v>
       </c>
       <c r="R6">
-        <v>11.14241290039654</v>
+        <v>120.009075802548</v>
       </c>
       <c r="S6">
-        <v>0.005867343054799772</v>
+        <v>0.005380049198932957</v>
       </c>
       <c r="T6">
-        <v>0.005867343054799772</v>
+        <v>0.004471395027190559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H7">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J7">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N7">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O7">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P7">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q7">
-        <v>50.14831238766489</v>
+        <v>2.511897185189778</v>
       </c>
       <c r="R7">
-        <v>50.14831238766489</v>
+        <v>22.607074666708</v>
       </c>
       <c r="S7">
-        <v>0.02640696903156617</v>
+        <v>0.0006756554209891824</v>
       </c>
       <c r="T7">
-        <v>0.02640696903156617</v>
+        <v>0.0008423126381738005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H8">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J8">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N8">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P8">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q8">
-        <v>34.27187620106619</v>
+        <v>0.8660723465457778</v>
       </c>
       <c r="R8">
-        <v>34.27187620106619</v>
+        <v>7.794651118911999</v>
       </c>
       <c r="S8">
-        <v>0.0180467962012184</v>
+        <v>0.0002329579727078942</v>
       </c>
       <c r="T8">
-        <v>0.0180467962012184</v>
+        <v>0.0002904194038551912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H9">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J9">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N9">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O9">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P9">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q9">
-        <v>86.62572292276666</v>
+        <v>4.292144919154556</v>
       </c>
       <c r="R9">
-        <v>86.62572292276666</v>
+        <v>38.629304272391</v>
       </c>
       <c r="S9">
-        <v>0.04561514981551401</v>
+        <v>0.001154510224143132</v>
       </c>
       <c r="T9">
-        <v>0.04561514981551401</v>
+        <v>0.001439281803249524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H10">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J10">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N10">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O10">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P10">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q10">
-        <v>176.4374886942401</v>
+        <v>5.262026000197555</v>
       </c>
       <c r="R10">
-        <v>176.4374886942401</v>
+        <v>47.35823400177799</v>
       </c>
       <c r="S10">
-        <v>0.09290799785920882</v>
+        <v>0.001415390889954317</v>
       </c>
       <c r="T10">
-        <v>0.09290799785920882</v>
+        <v>0.001764511313798327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H11">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J11">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N11">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O11">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P11">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q11">
-        <v>583.289559508597</v>
+        <v>17.7763488075565</v>
       </c>
       <c r="R11">
-        <v>583.289559508597</v>
+        <v>106.658092845339</v>
       </c>
       <c r="S11">
-        <v>0.3071471122559268</v>
+        <v>0.004781519923679803</v>
       </c>
       <c r="T11">
-        <v>0.3071471122559268</v>
+        <v>0.003973953326187953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H12">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I12">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J12">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N12">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O12">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P12">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q12">
-        <v>49.24409893211534</v>
+        <v>170.5069604829329</v>
       </c>
       <c r="R12">
-        <v>49.24409893211534</v>
+        <v>1534.562644346396</v>
       </c>
       <c r="S12">
-        <v>0.02593083064162316</v>
+        <v>0.04586332308739702</v>
       </c>
       <c r="T12">
-        <v>0.02593083064162316</v>
+        <v>0.05717597382494954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H13">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I13">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J13">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N13">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P13">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q13">
-        <v>33.65392735827412</v>
+        <v>58.78877696050489</v>
       </c>
       <c r="R13">
-        <v>33.65392735827412</v>
+        <v>529.098992644544</v>
       </c>
       <c r="S13">
-        <v>0.01772139829293872</v>
+        <v>0.01581312964594453</v>
       </c>
       <c r="T13">
-        <v>0.01772139829293872</v>
+        <v>0.01971359739904036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H14">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I14">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J14">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N14">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O14">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P14">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q14">
-        <v>85.06379310830017</v>
+        <v>291.3497369367907</v>
       </c>
       <c r="R14">
-        <v>85.06379310830017</v>
+        <v>2622.147632431117</v>
       </c>
       <c r="S14">
-        <v>0.04479267284118931</v>
+        <v>0.07836786884660746</v>
       </c>
       <c r="T14">
-        <v>0.04479267284118931</v>
+        <v>0.09769809329673265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H15">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I15">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J15">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N15">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O15">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P15">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q15">
-        <v>173.2561822106356</v>
+        <v>357.1850251538318</v>
       </c>
       <c r="R15">
-        <v>173.2561822106356</v>
+        <v>3214.665226384486</v>
       </c>
       <c r="S15">
-        <v>0.09123279369395103</v>
+        <v>0.09607638400339653</v>
       </c>
       <c r="T15">
-        <v>0.09123279369395103</v>
+        <v>0.1197745921399123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H16">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I16">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J16">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N16">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O16">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P16">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q16">
-        <v>572.772390673241</v>
+        <v>1206.654166234066</v>
       </c>
       <c r="R16">
-        <v>572.772390673241</v>
+        <v>7239.924997404392</v>
       </c>
       <c r="S16">
-        <v>0.301609008608728</v>
+        <v>0.3245683913665569</v>
       </c>
       <c r="T16">
-        <v>0.301609008608728</v>
+        <v>0.2697509702006996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H17">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I17">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J17">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N17">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O17">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P17">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q17">
-        <v>1.967216672167082</v>
+        <v>122.7196786793062</v>
       </c>
       <c r="R17">
-        <v>1.967216672167082</v>
+        <v>1104.477108113756</v>
       </c>
       <c r="S17">
-        <v>0.001035891882835815</v>
+        <v>0.0330093988920408</v>
       </c>
       <c r="T17">
-        <v>0.001035891882835815</v>
+        <v>0.04115149971649731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H18">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I18">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J18">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N18">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O18">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P18">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q18">
-        <v>1.344416253292846</v>
+        <v>42.31228917639822</v>
       </c>
       <c r="R18">
-        <v>1.344416253292846</v>
+        <v>380.810602587584</v>
       </c>
       <c r="S18">
-        <v>0.000707939244132389</v>
+        <v>0.01138124909134586</v>
       </c>
       <c r="T18">
-        <v>0.000707939244132389</v>
+        <v>0.01418854885203117</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H19">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I19">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J19">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N19">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O19">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P19">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q19">
-        <v>3.398151567989939</v>
+        <v>209.6943491275375</v>
       </c>
       <c r="R19">
-        <v>3.398151567989939</v>
+        <v>1887.249142147837</v>
       </c>
       <c r="S19">
-        <v>0.001789389890666603</v>
+        <v>0.05640402982023912</v>
       </c>
       <c r="T19">
-        <v>0.001789389890666603</v>
+        <v>0.07031665207682836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H20">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I20">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J20">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N20">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O20">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P20">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q20">
-        <v>6.921285140593783</v>
+        <v>257.0782529451384</v>
       </c>
       <c r="R20">
-        <v>6.921285140593783</v>
+        <v>2313.704276506246</v>
       </c>
       <c r="S20">
-        <v>0.003644592483061416</v>
+        <v>0.069149452551215</v>
       </c>
       <c r="T20">
-        <v>0.003644592483061416</v>
+        <v>0.08620586174149929</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H21">
+        <v>147.204811</v>
+      </c>
+      <c r="I21">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J21">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.6992215</v>
+      </c>
+      <c r="N21">
+        <v>35.398443</v>
+      </c>
+      <c r="O21">
+        <v>0.5788740910643339</v>
+      </c>
+      <c r="P21">
+        <v>0.4781858629721645</v>
+      </c>
+      <c r="Q21">
+        <v>868.4701852515456</v>
+      </c>
+      <c r="R21">
+        <v>5210.821111509274</v>
+      </c>
+      <c r="S21">
+        <v>0.233602948437698</v>
+      </c>
+      <c r="T21">
+        <v>0.1941489795648227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.214174</v>
+      </c>
+      <c r="H22">
+        <v>4.428348</v>
+      </c>
+      <c r="I22">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J22">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.500998666666666</v>
+      </c>
+      <c r="N22">
+        <v>7.502996</v>
+      </c>
+      <c r="O22">
+        <v>0.08179813614512804</v>
+      </c>
+      <c r="P22">
+        <v>0.1013554923061644</v>
+      </c>
+      <c r="Q22">
+        <v>5.537646221767999</v>
+      </c>
+      <c r="R22">
+        <v>33.22587733060799</v>
+      </c>
+      <c r="S22">
+        <v>0.001489527800468129</v>
+      </c>
+      <c r="T22">
+        <v>0.001237956560173508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.214174</v>
+      </c>
+      <c r="H23">
+        <v>4.428348</v>
+      </c>
+      <c r="I23">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J23">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.8623146666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.586944</v>
+      </c>
+      <c r="O23">
+        <v>0.02820302683245761</v>
+      </c>
+      <c r="P23">
+        <v>0.03494617119461054</v>
+      </c>
+      <c r="Q23">
+        <v>1.909314714752</v>
+      </c>
+      <c r="R23">
+        <v>11.455888288512</v>
+      </c>
+      <c r="S23">
+        <v>0.0005135715128002498</v>
+      </c>
+      <c r="T23">
+        <v>0.000426832733964072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.214174</v>
+      </c>
+      <c r="H24">
+        <v>4.428348</v>
+      </c>
+      <c r="I24">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J24">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.273522333333333</v>
+      </c>
+      <c r="N24">
+        <v>12.820567</v>
+      </c>
+      <c r="O24">
+        <v>0.1397706309484552</v>
+      </c>
+      <c r="P24">
+        <v>0.1731888008375808</v>
+      </c>
+      <c r="Q24">
+        <v>9.462322038885999</v>
+      </c>
+      <c r="R24">
+        <v>56.773932233316</v>
+      </c>
+      <c r="S24">
+        <v>0.002545195407842984</v>
+      </c>
+      <c r="T24">
+        <v>0.00211532899961482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="H21">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="I21">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="J21">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.7087957868524</v>
-      </c>
-      <c r="N21">
-        <v>11.7087957868524</v>
-      </c>
-      <c r="O21">
-        <v>0.6266722227164995</v>
-      </c>
-      <c r="P21">
-        <v>0.6266722227164995</v>
-      </c>
-      <c r="Q21">
-        <v>22.88126741526298</v>
-      </c>
-      <c r="R21">
-        <v>22.88126741526298</v>
-      </c>
-      <c r="S21">
-        <v>0.01204875879704491</v>
-      </c>
-      <c r="T21">
-        <v>0.01204875879704491</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.214174</v>
+      </c>
+      <c r="H25">
+        <v>4.428348</v>
+      </c>
+      <c r="I25">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J25">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.239195333333333</v>
+      </c>
+      <c r="N25">
+        <v>15.717586</v>
+      </c>
+      <c r="O25">
+        <v>0.1713541150096253</v>
+      </c>
+      <c r="P25">
+        <v>0.2123236726894799</v>
+      </c>
+      <c r="Q25">
+        <v>11.600490087988</v>
+      </c>
+      <c r="R25">
+        <v>69.60294052792798</v>
+      </c>
+      <c r="S25">
+        <v>0.003120324374856211</v>
+      </c>
+      <c r="T25">
+        <v>0.002593322547258628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.214174</v>
+      </c>
+      <c r="H26">
+        <v>4.428348</v>
+      </c>
+      <c r="I26">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J26">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.6992215</v>
+      </c>
+      <c r="N26">
+        <v>35.398443</v>
+      </c>
+      <c r="O26">
+        <v>0.5788740910643339</v>
+      </c>
+      <c r="P26">
+        <v>0.4781858629721645</v>
+      </c>
+      <c r="Q26">
+        <v>39.189156065541</v>
+      </c>
+      <c r="R26">
+        <v>156.756624262164</v>
+      </c>
+      <c r="S26">
+        <v>0.01054118213746611</v>
+      </c>
+      <c r="T26">
+        <v>0.005840564853263684</v>
       </c>
     </row>
   </sheetData>
